--- a/biology/Médecine/Siegfried_Handloser/Siegfried_Handloser.xlsx
+++ b/biology/Médecine/Siegfried_Handloser/Siegfried_Handloser.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Siegfried Handloser est un médecin et général allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Siegfried Adolf Handloser est né le 25 mars 1885 à Constance. Son père se prénomme Konstantin et sa mère Anna Maria. En 1903, il étudie la médecine et il devient docteur en 1911. Il a travaillé au service médical durant la Première Guerre mondiale. De 1928 à 1932, il travaille à l'hôpital universitaire de Giessen. En 1933, il travaille à l'inspection de l'armée et sanitaire du ministère de l'Armée à Stuttgart.   
 En 1938, il devient Generaloberst des forces armées des services médicaux allemands, chef des forces armées des services médicaux allemands de la Waffen-SS. Depuis juin 1942, il travaille dans le haut commandement des forces armées au poste nouvellement créé de chef des forces armées service médical. Il est principalement responsable du service de santé général des forces armées.
